--- a/DATA_SINTETICA_CARGA.xlsx
+++ b/DATA_SINTETICA_CARGA.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8954987e08a3e8bd/PERSONAL/TalentoTech/Analisis de datos/Proyectos/FORMATO DE EMISIONES GUAVIARE/CONSOLIDACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72140E56-11CD-4410-8A96-475584449C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{72140E56-11CD-4410-8A96-475584449C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00DE9CC-77B0-4452-B5D0-B97A0BF0C66F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56C1142B-4A01-40D5-9A1C-386AEAF646DD}"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HOJA!$A$1:$N$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="46">
   <si>
     <t>PERIODO_HASTA</t>
   </si>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>TRIM_1</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>21/Septiembre/2021</t>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C46B8A-F60B-4976-BD24-0CAA938B900D}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +635,7 @@
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -644,10 +644,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -691,10 +691,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -735,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -779,10 +779,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -823,10 +823,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -840,37 +840,23 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -911,10 +897,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -928,37 +914,23 @@
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -994,13 +966,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -1036,13 +1008,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -1078,13 +1050,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -1098,37 +1070,23 @@
       <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -1164,13 +1122,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -1184,37 +1142,23 @@
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
@@ -1250,13 +1194,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -1292,13 +1236,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1334,13 +1278,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -1354,37 +1298,23 @@
       <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -1420,13 +1350,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -1440,37 +1370,23 @@
       <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>27</v>
@@ -1511,10 +1427,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>27</v>
@@ -1555,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>27</v>
@@ -1599,10 +1515,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>27</v>
@@ -1643,22 +1559,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>13</v>
@@ -1687,22 +1603,22 @@
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>15</v>
@@ -1731,19 +1647,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -1772,13 +1688,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>27</v>
@@ -1816,13 +1732,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>27</v>
@@ -1860,13 +1776,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>27</v>
@@ -1904,13 +1820,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>27</v>
@@ -1948,25 +1864,25 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>13</v>
@@ -1992,25 +1908,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>15</v>
@@ -2036,22 +1952,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>19</v>
@@ -2080,13 +1996,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>27</v>
@@ -2124,13 +2040,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>27</v>
@@ -2168,13 +2084,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>27</v>
@@ -2212,13 +2128,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>27</v>
@@ -2256,25 +2172,25 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>13</v>
@@ -2300,25 +2216,25 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>15</v>
@@ -2344,22 +2260,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
@@ -2387,6 +2303,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N40" xr:uid="{C5C46B8A-F60B-4976-BD24-0CAA938B900D}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
